--- a/Analytics/D2/RefereeFirstCard_d2.xlsx
+++ b/Analytics/D2/RefereeFirstCard_d2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
   <si>
     <t>Referee</t>
   </si>
@@ -82,6 +82,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>Benjamin Brand</t>
   </si>
   <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
     <t>Sven Jablonski</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>Sören Storks</t>
   </si>
   <si>
+    <t>Matthias Jöllenbeck</t>
+  </si>
+  <si>
     <t>Frank Willenborg</t>
   </si>
   <si>
@@ -170,9 +179,6 @@
   </si>
   <si>
     <t>Bastian Dankert</t>
-  </si>
-  <si>
-    <t>Matthias Jöllenbeck</t>
   </si>
   <si>
     <t>Felix Brych</t>
@@ -251,7 +257,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -262,7 +268,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -273,7 +279,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -284,7 +290,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -295,7 +301,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -306,7 +312,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -317,7 +323,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -328,7 +334,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -339,7 +345,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -350,7 +356,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -361,7 +367,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -372,7 +378,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -383,7 +389,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -394,7 +400,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -405,7 +411,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -416,7 +422,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -427,7 +433,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -438,9 +444,20 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -482,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -493,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -504,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -515,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -526,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -537,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -548,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -559,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -570,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -581,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -592,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -603,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -614,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -625,7 +642,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -636,7 +653,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -647,9 +664,42 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -691,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -702,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -713,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -724,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -735,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -746,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -757,9 +807,20 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -801,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -812,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -823,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -834,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -845,9 +906,20 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -878,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -889,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -900,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -911,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -922,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -955,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -977,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -988,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -999,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1010,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
